--- a/public/migracao/codigo_de_despesas.xlsx
+++ b/public/migracao/codigo_de_despesas.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Codigos_Despesas"/>
   </sheets>
   <definedNames>
-    <definedName name="Codigos_Despesas">'Codigos_Despesas'!$A$1:$D$203</definedName>
+    <definedName name="Codigos_Despesas">'Codigos_Despesas'!$A$1:$D$207</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3388,6 +3388,66 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0">
+        <v>204</v>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>ADIANTAMENTO DE SALÁRIO</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>SALÁRIO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0">
+        <v>205</v>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>RESCISÃO TRABALHISTA</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>RESCISÃO TRABALHISTA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0">
+        <v>206</v>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>OPERADOR DE MAQUINAS</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>PRESTADOR DE SERVIÇO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0">
+        <v>207</v>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>CENOGRAFO</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>PRESTADOR DE SERVIÇO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/migracao/codigo_de_despesas.xlsx
+++ b/public/migracao/codigo_de_despesas.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Codigos_Despesas"/>
   </sheets>
   <definedNames>
-    <definedName name="Codigos_Despesas">'Codigos_Despesas'!$A$1:$D$203</definedName>
+    <definedName name="Codigos_Despesas">'Codigos_Despesas'!$A$1:$D$207</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>PAGAMENTO</t>
+          <t>SALÁRIO</t>
         </is>
       </c>
     </row>
@@ -3385,6 +3385,66 @@
       <c r="C203" s="0" t="inlineStr">
         <is>
           <t>CONCESSIONÁRIA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0">
+        <v>204</v>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>ADIANTAMENTO DE SALÁRIO</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>SALÁRIO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0">
+        <v>205</v>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>RESCISÃO TRABALHISTA</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>RESCISÃO TRABALHISTA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0">
+        <v>206</v>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>OPERADOR DE MAQUINAS</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>PRESTADOR DE SERVIÇO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0">
+        <v>207</v>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>CENOGRAFO</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>PRESTADOR DE SERVIÇO</t>
         </is>
       </c>
     </row>
